--- a/Assignment5/The World's Highest-Paid Athletes List.xlsx
+++ b/Assignment5/The World's Highest-Paid Athletes List.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="The World's Highest-Paid Athlet" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -872,11 +873,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="1633016496"/>
-        <c:axId val="1590290928"/>
+        <c:axId val="1968271856"/>
+        <c:axId val="1968273904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1633016496"/>
+        <c:axId val="1968271856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +938,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1590290928"/>
+        <c:crossAx val="1968273904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -945,7 +946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1590290928"/>
+        <c:axId val="1968273904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,6 +977,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1005,654 +1007,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1633016496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'The World''s Highest-Paid Athlet'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Salary/Winnings ($M)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'The World''s Highest-Paid Athlet'!$B$2:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Floyd Mayweather</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Lionel Messi</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cristiano Ronaldo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Conor McGregor</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Neymar</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LeBron James</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Roger Federer</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Stephen Curry</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Matt Ryan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Matthew Stafford</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Kevin Durant</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Lewis Hamilton</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Russell Westbrook</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>James Harden</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canelo Alvarez</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Tiger Woods</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Drew Brees</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Sebastian Vettel</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Derek Carr</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Rafael Nadal</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Alex Smith</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Phil Mickelson</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Jordan Spieth</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Damian Lillard</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Anthony Joshua</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'The World''s Highest-Paid Athlet'!$D$2:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>275.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>34.9</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>62.3</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>57.5</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>25.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>28.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>40.1</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>26.2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'The World''s Highest-Paid Athlet'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Endorsements ($M)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'The World''s Highest-Paid Athlet'!$B$2:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Floyd Mayweather</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Lionel Messi</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cristiano Ronaldo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Conor McGregor</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Neymar</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LeBron James</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Roger Federer</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Stephen Curry</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Matt Ryan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Matthew Stafford</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Kevin Durant</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Lewis Hamilton</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Russell Westbrook</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>James Harden</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Canelo Alvarez</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Tiger Woods</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Drew Brees</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Sebastian Vettel</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Derek Carr</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Rafael Nadal</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Alex Smith</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Phil Mickelson</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Jordan Spieth</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Damian Lillard</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Anthony Joshua</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'The World''s Highest-Paid Athlet'!$E$2:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
-        <c:axId val="1645665296"/>
-        <c:axId val="1590005376"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1645665296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1590005376"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1590005376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1645665296"/>
+        <c:crossAx val="1968271856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1736,46 +1091,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2364,574 +1679,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>431799</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>715432</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>316653</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafiek 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2940,36 +1708,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>406399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>690032</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Grafiek 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3246,7 +1984,7 @@
   </sheetPr>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="183" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -5578,6 +4316,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>